--- a/Input/swaps/uk-inflation-CPI-swaps.xlsx
+++ b/Input/swaps/uk-inflation-CPI-swaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SHARE\cmf\Desi\Rajesh\POLICY\Inflation_Swap_Breakeven_Basis\input\swaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SHARE\cmf\Desi\Rajesh\IIE\Input\swaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54A193C-1EB2-4BF9-BEA7-DA6144CAF4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8321A07-0CF0-46CD-B1F6-32C9A8669113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2235" windowWidth="19425" windowHeight="12045" xr2:uid="{CD6E5492-9B6F-48BC-BA9E-F8938070580A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD6E5492-9B6F-48BC-BA9E-F8938070580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,157 +221,151 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4058645432</v>
+        <v>#N/A Requesting Data...1846912138</v>
         <stp/>
         <stp>BTODAY|10610048301435813905</stp>
+        <tr r="AI3" s="1"/>
+        <tr r="AE3" s="1"/>
+        <tr r="K3" s="1"/>
+        <tr r="C3" s="1"/>
+        <tr r="S3" s="1"/>
         <tr r="AA3" s="1"/>
+        <tr r="A3" s="1"/>
+        <tr r="U3" s="1"/>
+        <tr r="AG3" s="1"/>
+        <tr r="W3" s="1"/>
+        <tr r="AM3" s="1"/>
+        <tr r="G3" s="1"/>
+        <tr r="E3" s="1"/>
         <tr r="I3" s="1"/>
-        <tr r="G3" s="1"/>
         <tr r="Q3" s="1"/>
-        <tr r="S3" s="1"/>
-        <tr r="A3" s="1"/>
+        <tr r="AK3" s="1"/>
+        <tr r="O3" s="1"/>
+        <tr r="M3" s="1"/>
+        <tr r="Y3" s="1"/>
+        <tr r="AC3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16648520785384556595</stp>
         <tr r="E3" s="1"/>
-        <tr r="U3" s="1"/>
-        <tr r="O3" s="1"/>
-        <tr r="AK3" s="1"/>
-        <tr r="M3" s="1"/>
-        <tr r="AE3" s="1"/>
-        <tr r="AC3" s="1"/>
-        <tr r="K3" s="1"/>
-        <tr r="AI3" s="1"/>
-        <tr r="W3" s="1"/>
-        <tr r="Y3" s="1"/>
-        <tr r="C3" s="1"/>
-        <tr r="AG3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10549088599100705024</stp>
         <tr r="AM3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11937286493913463266</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|18439340142050088158</stp>
-        <tr r="AC3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14085293700049207105</stp>
-        <tr r="Q3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14258350721969838238</stp>
+        <stp>BDH|11329469735326819906</stp>
         <tr r="AI3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10028406081253993209</stp>
-        <tr r="U3" s="1"/>
+        <stp>BDH|17001268527352750308</stp>
+        <tr r="O3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15501754331071136389</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14448679692823700969</stp>
+        <stp>BDH|10650083590878889658</stp>
         <tr r="G3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13296515172487199725</stp>
-        <tr r="S3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13678647534765669524</stp>
-        <tr r="W3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14828810951805036895</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14904302481302936946</stp>
-        <tr r="AM3" s="1"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7109425088732833491</stp>
+        <stp>BDH|9522836198193782777</stp>
+        <tr r="Q3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4730474201995732809</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6278499560308300214</stp>
+        <tr r="AA3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4825095734829100047</stp>
+        <tr r="S3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3983271590964145376</stp>
+        <tr r="AC3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3695581399787516185</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7550497448038514669</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1434424010877081843</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|51895073987318067</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3807177880892348790</stp>
-        <tr r="AA3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9812966683781184193</stp>
+        <stp>BDH|6190733131183777756</stp>
         <tr r="AE3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7331862566047891767</stp>
+        <stp>BDH|7076621114430649181</stp>
         <tr r="Y3" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5662693036385003351</stp>
-        <tr r="M3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3203231330860321589</stp>
-        <tr r="O3" s="1"/>
+        <stp>BDH|8217453993812418426</stp>
+        <tr r="AK3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6238421364436296530</stp>
-        <tr r="A3" s="1"/>
+        <stp>BDH|6741572581051137914</stp>
+        <tr r="W3" s="1"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7681967980221727475</stp>
-        <tr r="AG3" s="1"/>
+        <stp>BDH|342115791250466456</stp>
+        <tr r="A3" s="1"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|588962835704167876</stp>
-        <tr r="AK3" s="1"/>
+        <stp>BDH|513886186961857968</stp>
+        <tr r="AG3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -675,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C36439-120D-4AC8-AA17-C4C11277DC4C}">
-  <dimension ref="A1:AN366"/>
+  <dimension ref="A1:AN386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -871,140 +865,140 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>_xll.BDH(B$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(B$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="B3" s="2">
         <v>0.79</v>
       </c>
       <c r="C3" s="1">
-        <f>_xll.BDH(D$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(D$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="D3" s="2">
         <v>1.6175000000000002</v>
       </c>
       <c r="E3" s="1">
-        <f>_xll.BDH(F$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(F$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="F3" s="2">
         <v>1.9100000000000001</v>
       </c>
       <c r="G3" s="1">
-        <f>_xll.BDH(H$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(H$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="H3" s="2">
         <v>2.1025</v>
       </c>
       <c r="I3" s="1">
-        <f>_xll.BDH(J$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(J$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="J3" s="2">
         <v>2.2425000000000002</v>
       </c>
       <c r="K3" s="1">
-        <f>_xll.BDH(L$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(L$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="L3" s="2">
         <v>2.3174999999999999</v>
       </c>
       <c r="M3" s="1">
-        <f>_xll.BDH(N$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(N$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="N3" s="2">
         <v>2.3774999999999999</v>
       </c>
       <c r="O3" s="1">
-        <f>_xll.BDH(P$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(P$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="P3" s="2">
         <v>2.4175</v>
       </c>
       <c r="Q3" s="1">
-        <f>_xll.BDH(R$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(R$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="R3" s="2">
         <v>2.4525000000000001</v>
       </c>
       <c r="S3" s="1">
-        <f>_xll.BDH(T$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(T$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="T3" s="2">
         <v>2.48</v>
       </c>
       <c r="U3" s="1">
-        <f>_xll.BDH(V$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(V$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="V3" s="2">
         <v>2.4500000000000002</v>
       </c>
       <c r="W3" s="1">
-        <f>_xll.BDH(X$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(X$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="X3" s="2">
         <v>2.375</v>
       </c>
       <c r="Y3" s="1">
-        <f>_xll.BDH(Z$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(Z$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="Z3" s="2">
         <v>2.2925</v>
       </c>
       <c r="AA3" s="1">
-        <f>_xll.BDH(AB$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AB$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AB3" s="2">
         <v>2.2324999999999999</v>
       </c>
       <c r="AC3" s="1">
-        <f>_xll.BDH(AD$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AD$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AD3" s="2">
         <v>2.145</v>
       </c>
       <c r="AE3" s="1">
-        <f>_xll.BDH(AF$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AF$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AF3" s="2">
         <v>2.0525000000000002</v>
       </c>
       <c r="AG3" s="1">
-        <f>_xll.BDH(AH$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AH$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AH3" s="2">
         <v>1.9725000000000001</v>
       </c>
       <c r="AI3" s="1">
-        <f>_xll.BDH(AJ$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AJ$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AJ3" s="2">
         <v>1.9525000000000001</v>
       </c>
       <c r="AK3" s="1">
-        <f>_xll.BDH(AL$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AL$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AL3" s="2">
         <v>1.94</v>
       </c>
       <c r="AM3" s="1">
-        <f>_xll.BDH(AN$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=364")</f>
+        <f>_xll.BDH(AN$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
         <v>43909</v>
       </c>
       <c r="AN3" s="2">
@@ -45295,6 +45289,2446 @@
       </c>
       <c r="AN366">
         <v>3.2800000000000002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="B367">
+        <v>3.76</v>
+      </c>
+      <c r="C367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="D367">
+        <v>3.355</v>
+      </c>
+      <c r="E367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="F367">
+        <v>3.22</v>
+      </c>
+      <c r="G367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="H367">
+        <v>3.3</v>
+      </c>
+      <c r="I367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="J367">
+        <v>3.25</v>
+      </c>
+      <c r="K367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="L367">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="M367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="N367">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="O367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="P367">
+        <v>3.29</v>
+      </c>
+      <c r="Q367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="R367">
+        <v>3.29</v>
+      </c>
+      <c r="S367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="T367">
+        <v>3.3025000000000002</v>
+      </c>
+      <c r="U367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="V367">
+        <v>3.3574999999999999</v>
+      </c>
+      <c r="W367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="X367">
+        <v>3.39</v>
+      </c>
+      <c r="Y367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="Z367">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="AA367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AB367">
+        <v>3.3725000000000001</v>
+      </c>
+      <c r="AC367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AD367">
+        <v>3.3125</v>
+      </c>
+      <c r="AE367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AF367">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="AG367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AH367">
+        <v>3.24</v>
+      </c>
+      <c r="AI367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AJ367">
+        <v>3.2275</v>
+      </c>
+      <c r="AK367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AL367">
+        <v>3.2275</v>
+      </c>
+      <c r="AM367" s="3">
+        <v>44419</v>
+      </c>
+      <c r="AN367">
+        <v>3.2524999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="B368">
+        <v>3.76</v>
+      </c>
+      <c r="C368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="D368">
+        <v>3.35</v>
+      </c>
+      <c r="E368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="F368">
+        <v>3.21</v>
+      </c>
+      <c r="G368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="H368">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="I368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="J368">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="K368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="L368">
+        <v>3.2574999999999998</v>
+      </c>
+      <c r="M368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="N368">
+        <v>3.27</v>
+      </c>
+      <c r="O368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="P368">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="Q368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="R368">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="S368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="T368">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="U368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="V368">
+        <v>3.3525</v>
+      </c>
+      <c r="W368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="X368">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="Y368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="Z368">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AA368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AB368">
+        <v>3.37</v>
+      </c>
+      <c r="AC368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AD368">
+        <v>3.31</v>
+      </c>
+      <c r="AE368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AF368">
+        <v>3.26</v>
+      </c>
+      <c r="AG368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AH368">
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="AI368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AJ368">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AK368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AL368">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AM368" s="3">
+        <v>44420</v>
+      </c>
+      <c r="AN368">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="B369">
+        <v>3.76</v>
+      </c>
+      <c r="C369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="D369">
+        <v>3.35</v>
+      </c>
+      <c r="E369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="F369">
+        <v>3.21</v>
+      </c>
+      <c r="G369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="H369">
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="I369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="J369">
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="K369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="L369">
+        <v>3.25</v>
+      </c>
+      <c r="M369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="N369">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="O369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="P369">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="R369">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="S369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="T369">
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="U369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="V369">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="W369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="X369">
+        <v>3.375</v>
+      </c>
+      <c r="Y369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="Z369">
+        <v>3.415</v>
+      </c>
+      <c r="AA369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AB369">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="AC369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AD369">
+        <v>3.3025000000000002</v>
+      </c>
+      <c r="AE369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AF369">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="AG369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AH369">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="AI369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AJ369">
+        <v>3.2225000000000001</v>
+      </c>
+      <c r="AK369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AL369">
+        <v>3.2225000000000001</v>
+      </c>
+      <c r="AM369" s="3">
+        <v>44421</v>
+      </c>
+      <c r="AN369">
+        <v>3.2475000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="B370">
+        <v>3.75</v>
+      </c>
+      <c r="C370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="D370">
+        <v>3.35</v>
+      </c>
+      <c r="E370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="F370">
+        <v>3.2</v>
+      </c>
+      <c r="G370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="H370">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="I370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="J370">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="K370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="L370">
+        <v>3.2275</v>
+      </c>
+      <c r="M370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="N370">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="O370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="P370">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="R370">
+        <v>3.26</v>
+      </c>
+      <c r="S370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="T370">
+        <v>3.2725</v>
+      </c>
+      <c r="U370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="V370">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="W370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="X370">
+        <v>3.355</v>
+      </c>
+      <c r="Y370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="Z370">
+        <v>3.395</v>
+      </c>
+      <c r="AA370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AB370">
+        <v>3.34</v>
+      </c>
+      <c r="AC370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AD370">
+        <v>3.2774999999999999</v>
+      </c>
+      <c r="AE370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AF370">
+        <v>3.2275</v>
+      </c>
+      <c r="AG370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AH370">
+        <v>3.2075</v>
+      </c>
+      <c r="AI370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AJ370">
+        <v>3.1974999999999998</v>
+      </c>
+      <c r="AK370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AL370">
+        <v>3.1974999999999998</v>
+      </c>
+      <c r="AM370" s="3">
+        <v>44424</v>
+      </c>
+      <c r="AN370">
+        <v>3.2225000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="B371">
+        <v>3.59</v>
+      </c>
+      <c r="C371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="D371">
+        <v>3.21</v>
+      </c>
+      <c r="E371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="F371">
+        <v>3.0874999999999999</v>
+      </c>
+      <c r="G371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="H371">
+        <v>3.1475</v>
+      </c>
+      <c r="I371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="J371">
+        <v>3.105</v>
+      </c>
+      <c r="K371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="L371">
+        <v>3.1274999999999999</v>
+      </c>
+      <c r="M371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="N371">
+        <v>3.145</v>
+      </c>
+      <c r="O371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="P371">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="Q371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="R371">
+        <v>3.2075</v>
+      </c>
+      <c r="S371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="T371">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="U371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="V371">
+        <v>3.29</v>
+      </c>
+      <c r="W371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="X371">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Y371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="Z371">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AA371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AB371">
+        <v>3.32</v>
+      </c>
+      <c r="AC371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AD371">
+        <v>3.2675000000000001</v>
+      </c>
+      <c r="AE371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AF371">
+        <v>3.2275</v>
+      </c>
+      <c r="AG371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AH371">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="AI371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AJ371">
+        <v>3.2075</v>
+      </c>
+      <c r="AK371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AL371">
+        <v>3.2075</v>
+      </c>
+      <c r="AM371" s="3">
+        <v>44425</v>
+      </c>
+      <c r="AN371">
+        <v>3.2275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="B372">
+        <v>3.56</v>
+      </c>
+      <c r="C372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="D372">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="E372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="F372">
+        <v>3.07</v>
+      </c>
+      <c r="G372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="H372">
+        <v>3.145</v>
+      </c>
+      <c r="I372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="J372">
+        <v>3.1025</v>
+      </c>
+      <c r="K372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="L372">
+        <v>3.125</v>
+      </c>
+      <c r="M372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="N372">
+        <v>3.145</v>
+      </c>
+      <c r="O372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="P372">
+        <v>3.1775000000000002</v>
+      </c>
+      <c r="Q372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="R372">
+        <v>3.21</v>
+      </c>
+      <c r="S372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="T372">
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="U372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="V372">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="W372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="X372">
+        <v>3.335</v>
+      </c>
+      <c r="Y372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="Z372">
+        <v>3.38</v>
+      </c>
+      <c r="AA372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AB372">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AC372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AD372">
+        <v>3.2925</v>
+      </c>
+      <c r="AE372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AF372">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="AG372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AH372">
+        <v>3.24</v>
+      </c>
+      <c r="AI372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AJ372">
+        <v>3.23</v>
+      </c>
+      <c r="AK372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AL372">
+        <v>3.2275</v>
+      </c>
+      <c r="AM372" s="3">
+        <v>44426</v>
+      </c>
+      <c r="AN372">
+        <v>3.2475000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="B373">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="C373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="D373">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="F373">
+        <v>3.0274999999999999</v>
+      </c>
+      <c r="G373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="H373">
+        <v>3.1124999999999998</v>
+      </c>
+      <c r="I373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="J373">
+        <v>3.07</v>
+      </c>
+      <c r="K373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="L373">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="M373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="N373">
+        <v>3.1175000000000002</v>
+      </c>
+      <c r="O373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="P373">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="Q373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="R373">
+        <v>3.19</v>
+      </c>
+      <c r="S373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="T373">
+        <v>3.22</v>
+      </c>
+      <c r="U373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="V373">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="W373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="X373">
+        <v>3.32</v>
+      </c>
+      <c r="Y373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="Z373">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AA373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AB373">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="AC373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AD373">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="AE373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AF373">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="AG373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AH373">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="AI373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AJ373">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AK373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AL373">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AM373" s="3">
+        <v>44427</v>
+      </c>
+      <c r="AN373">
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="B374">
+        <v>3.52</v>
+      </c>
+      <c r="C374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="D374">
+        <v>3.14</v>
+      </c>
+      <c r="E374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="F374">
+        <v>3.0325000000000002</v>
+      </c>
+      <c r="G374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="H374">
+        <v>3.11</v>
+      </c>
+      <c r="I374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="J374">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="K374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="L374">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="M374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="N374">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="O374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="P374">
+        <v>3.15</v>
+      </c>
+      <c r="Q374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="R374">
+        <v>3.1875</v>
+      </c>
+      <c r="S374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="T374">
+        <v>3.22</v>
+      </c>
+      <c r="U374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="V374">
+        <v>3.2824999999999998</v>
+      </c>
+      <c r="W374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="X374">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="Y374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="Z374">
+        <v>3.375</v>
+      </c>
+      <c r="AA374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AB374">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AC374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AD374">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="AE374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AF374">
+        <v>3.26</v>
+      </c>
+      <c r="AG374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AH374">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="AI374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AJ374">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="AK374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AL374">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="AM374" s="3">
+        <v>44428</v>
+      </c>
+      <c r="AN374">
+        <v>3.2625000000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="B375">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="C375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="D375">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="F375">
+        <v>3.06</v>
+      </c>
+      <c r="G375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="H375">
+        <v>3.14</v>
+      </c>
+      <c r="I375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="J375">
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="K375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="L375">
+        <v>3.1225000000000001</v>
+      </c>
+      <c r="M375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="N375">
+        <v>3.1375000000000002</v>
+      </c>
+      <c r="O375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="P375">
+        <v>3.16</v>
+      </c>
+      <c r="Q375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="R375">
+        <v>3.1974999999999998</v>
+      </c>
+      <c r="S375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="T375">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="U375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="V375">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="W375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="X375">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="Y375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="Z375">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="AA375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AB375">
+        <v>3.36</v>
+      </c>
+      <c r="AC375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AD375">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="AE375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AF375">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="AG375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AH375">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="AI375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AJ375">
+        <v>3.2725</v>
+      </c>
+      <c r="AK375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AL375">
+        <v>3.2725</v>
+      </c>
+      <c r="AM375" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AN375">
+        <v>3.2925</v>
+      </c>
+    </row>
+    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="B376">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="C376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="D376">
+        <v>3.24</v>
+      </c>
+      <c r="E376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="F376">
+        <v>3.13</v>
+      </c>
+      <c r="G376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="H376">
+        <v>3.1924999999999999</v>
+      </c>
+      <c r="I376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="J376">
+        <v>3.14</v>
+      </c>
+      <c r="K376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="L376">
+        <v>3.165</v>
+      </c>
+      <c r="M376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="N376">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="O376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="P376">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="Q376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="R376">
+        <v>3.23</v>
+      </c>
+      <c r="S376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="T376">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="U376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="V376">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="W376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="X376">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="Y376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="Z376">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AA376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AB376">
+        <v>3.3875000000000002</v>
+      </c>
+      <c r="AC376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AD376">
+        <v>3.35</v>
+      </c>
+      <c r="AE376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AF376">
+        <v>3.3125</v>
+      </c>
+      <c r="AG376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AH376">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="AI376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AJ376">
+        <v>3.3</v>
+      </c>
+      <c r="AK376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AL376">
+        <v>3.3</v>
+      </c>
+      <c r="AM376" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AN376">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="B377">
+        <v>3.7</v>
+      </c>
+      <c r="C377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="D377">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="E377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="F377">
+        <v>3.165</v>
+      </c>
+      <c r="G377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="H377">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="I377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="J377">
+        <v>3.18</v>
+      </c>
+      <c r="K377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="L377">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="M377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="N377">
+        <v>3.21</v>
+      </c>
+      <c r="O377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="P377">
+        <v>3.2275</v>
+      </c>
+      <c r="Q377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="R377">
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="S377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="T377">
+        <v>3.2925</v>
+      </c>
+      <c r="U377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="V377">
+        <v>3.355</v>
+      </c>
+      <c r="W377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="X377">
+        <v>3.395</v>
+      </c>
+      <c r="Y377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="Z377">
+        <v>3.4474999999999998</v>
+      </c>
+      <c r="AA377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AB377">
+        <v>3.415</v>
+      </c>
+      <c r="AC377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AD377">
+        <v>3.38</v>
+      </c>
+      <c r="AE377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AF377">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AG377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AH377">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AI377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AJ377">
+        <v>3.33</v>
+      </c>
+      <c r="AK377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AL377">
+        <v>3.33</v>
+      </c>
+      <c r="AM377" s="3">
+        <v>44433</v>
+      </c>
+      <c r="AN377">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="B378">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="C378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="D378">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="F378">
+        <v>3.17</v>
+      </c>
+      <c r="G378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="H378">
+        <v>3.24</v>
+      </c>
+      <c r="I378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="J378">
+        <v>3.1924999999999999</v>
+      </c>
+      <c r="K378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="L378">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="M378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="N378">
+        <v>3.2225000000000001</v>
+      </c>
+      <c r="O378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="P378">
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="Q378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="R378">
+        <v>3.2725</v>
+      </c>
+      <c r="S378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="T378">
+        <v>3.3025000000000002</v>
+      </c>
+      <c r="U378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="V378">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="W378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="X378">
+        <v>3.4050000000000002</v>
+      </c>
+      <c r="Y378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="Z378">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="AA378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AB378">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AC378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AD378">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AE378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AF378">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AG378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AH378">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AI378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AJ378">
+        <v>3.335</v>
+      </c>
+      <c r="AK378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AL378">
+        <v>3.335</v>
+      </c>
+      <c r="AM378" s="3">
+        <v>44434</v>
+      </c>
+      <c r="AN378">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="B379">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="C379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="D379">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="F379">
+        <v>3.17</v>
+      </c>
+      <c r="G379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="H379">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="I379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="J379">
+        <v>3.1875</v>
+      </c>
+      <c r="K379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="L379">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="M379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="N379">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="O379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="P379">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="Q379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="R379">
+        <v>3.2675000000000001</v>
+      </c>
+      <c r="S379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="T379">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="U379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="V379">
+        <v>3.36</v>
+      </c>
+      <c r="W379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="X379">
+        <v>3.4</v>
+      </c>
+      <c r="Y379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="Z379">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="AA379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AB379">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AC379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AD379">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AE379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AF379">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AG379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AH379">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AI379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AJ379">
+        <v>3.335</v>
+      </c>
+      <c r="AK379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AL379">
+        <v>3.335</v>
+      </c>
+      <c r="AM379" s="3">
+        <v>44435</v>
+      </c>
+      <c r="AN379">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="B380">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="C380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="D380">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="F380">
+        <v>3.17</v>
+      </c>
+      <c r="G380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="H380">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="I380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="J380">
+        <v>3.1875</v>
+      </c>
+      <c r="K380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="L380">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="M380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="N380">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="O380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="P380">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="Q380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="R380">
+        <v>3.2675000000000001</v>
+      </c>
+      <c r="S380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="T380">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="U380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="V380">
+        <v>3.36</v>
+      </c>
+      <c r="W380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="X380">
+        <v>3.4</v>
+      </c>
+      <c r="Y380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="Z380">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="AA380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AB380">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AC380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AD380">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AE380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AF380">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AG380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AH380">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AI380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AJ380">
+        <v>3.335</v>
+      </c>
+      <c r="AK380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AL380">
+        <v>3.335</v>
+      </c>
+      <c r="AM380" s="3">
+        <v>44438</v>
+      </c>
+      <c r="AN380">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B381">
+        <v>3.7124999999999999</v>
+      </c>
+      <c r="C381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="D381">
+        <v>3.3</v>
+      </c>
+      <c r="E381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="F381">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="G381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="H381">
+        <v>3.2275</v>
+      </c>
+      <c r="I381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="J381">
+        <v>3.18</v>
+      </c>
+      <c r="K381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="L381">
+        <v>3.2025000000000001</v>
+      </c>
+      <c r="M381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="N381">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="O381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="P381">
+        <v>3.2225000000000001</v>
+      </c>
+      <c r="Q381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="R381">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="S381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="T381">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="U381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="V381">
+        <v>3.34</v>
+      </c>
+      <c r="W381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="X381">
+        <v>3.375</v>
+      </c>
+      <c r="Y381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="Z381">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="AA381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AB381">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AC381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AD381">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AE381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AF381">
+        <v>3.3025000000000002</v>
+      </c>
+      <c r="AG381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AH381">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="AI381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AJ381">
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="AK381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AL381">
+        <v>3.2824999999999998</v>
+      </c>
+      <c r="AM381" s="3">
+        <v>44439</v>
+      </c>
+      <c r="AN381">
+        <v>3.3025000000000002</v>
+      </c>
+    </row>
+    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B382">
+        <v>3.63</v>
+      </c>
+      <c r="C382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="D382">
+        <v>3.13</v>
+      </c>
+      <c r="E382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="F382">
+        <v>3.05</v>
+      </c>
+      <c r="G382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="H382">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="I382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="J382">
+        <v>3.1274999999999999</v>
+      </c>
+      <c r="K382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="L382">
+        <v>3.165</v>
+      </c>
+      <c r="M382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="N382">
+        <v>3.17</v>
+      </c>
+      <c r="O382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="P382">
+        <v>3.1924999999999999</v>
+      </c>
+      <c r="Q382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="R382">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="S382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="T382">
+        <v>3.25</v>
+      </c>
+      <c r="U382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="V382">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="W382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="X382">
+        <v>3.34</v>
+      </c>
+      <c r="Y382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="Z382">
+        <v>3.39</v>
+      </c>
+      <c r="AA382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AB382">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AC382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AD382">
+        <v>3.3</v>
+      </c>
+      <c r="AE382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AF382">
+        <v>3.2675000000000001</v>
+      </c>
+      <c r="AG382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AH382">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="AI382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AJ382">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="AK382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AL382">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="AM382" s="3">
+        <v>44440</v>
+      </c>
+      <c r="AN382">
+        <v>3.2625000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="B383">
+        <v>3.7</v>
+      </c>
+      <c r="C383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="D383">
+        <v>3.2</v>
+      </c>
+      <c r="E383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="F383">
+        <v>3.1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="H383">
+        <v>3.18</v>
+      </c>
+      <c r="I383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="J383">
+        <v>3.1524999999999999</v>
+      </c>
+      <c r="K383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="L383">
+        <v>3.1875</v>
+      </c>
+      <c r="M383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="N383">
+        <v>3.1924999999999999</v>
+      </c>
+      <c r="O383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="P383">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="Q383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="R383">
+        <v>3.2475000000000001</v>
+      </c>
+      <c r="S383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="T383">
+        <v>3.27</v>
+      </c>
+      <c r="U383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="V383">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="W383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="X383">
+        <v>3.3525</v>
+      </c>
+      <c r="Y383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="Z383">
+        <v>3.4</v>
+      </c>
+      <c r="AA383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AB383">
+        <v>3.355</v>
+      </c>
+      <c r="AC383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AD383">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="AE383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AF383">
+        <v>3.2725</v>
+      </c>
+      <c r="AG383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AH383">
+        <v>3.25</v>
+      </c>
+      <c r="AI383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AJ383">
+        <v>3.24</v>
+      </c>
+      <c r="AK383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AL383">
+        <v>3.2475000000000001</v>
+      </c>
+      <c r="AM383" s="3">
+        <v>44441</v>
+      </c>
+      <c r="AN383">
+        <v>3.2675000000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="B384">
+        <v>3.71</v>
+      </c>
+      <c r="C384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="D384">
+        <v>3.21</v>
+      </c>
+      <c r="E384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="F384">
+        <v>3.105</v>
+      </c>
+      <c r="G384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="H384">
+        <v>3.1825000000000001</v>
+      </c>
+      <c r="I384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="J384">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="K384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L384">
+        <v>3.19</v>
+      </c>
+      <c r="M384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="N384">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="O384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="P384">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="Q384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="R384">
+        <v>3.25</v>
+      </c>
+      <c r="S384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="T384">
+        <v>3.2725</v>
+      </c>
+      <c r="U384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="V384">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="W384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="X384">
+        <v>3.35</v>
+      </c>
+      <c r="Y384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="Z384">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="AA384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AB384">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AC384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AD384">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="AE384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AF384">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="AG384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AH384">
+        <v>3.2475000000000001</v>
+      </c>
+      <c r="AI384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AJ384">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="AK384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AL384">
+        <v>3.2324999999999999</v>
+      </c>
+      <c r="AM384" s="3">
+        <v>44442</v>
+      </c>
+      <c r="AN384">
+        <v>3.2524999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B385">
+        <v>3.81</v>
+      </c>
+      <c r="C385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="D385">
+        <v>3.29</v>
+      </c>
+      <c r="E385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="F385">
+        <v>3.15</v>
+      </c>
+      <c r="G385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="H385">
+        <v>3.24</v>
+      </c>
+      <c r="I385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="J385">
+        <v>3.21</v>
+      </c>
+      <c r="K385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L385">
+        <v>3.2374999999999998</v>
+      </c>
+      <c r="M385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="N385">
+        <v>3.24</v>
+      </c>
+      <c r="O385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="P385">
+        <v>3.26</v>
+      </c>
+      <c r="Q385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="R385">
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="S385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="T385">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="U385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="V385">
+        <v>3.3525</v>
+      </c>
+      <c r="W385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="X385">
+        <v>3.375</v>
+      </c>
+      <c r="Y385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="Z385">
+        <v>3.4175</v>
+      </c>
+      <c r="AA385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AB385">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AC385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AD385">
+        <v>3.3125</v>
+      </c>
+      <c r="AE385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AF385">
+        <v>3.2774999999999999</v>
+      </c>
+      <c r="AG385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AH385">
+        <v>3.26</v>
+      </c>
+      <c r="AI385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AJ385">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="AK385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AL385">
+        <v>3.2425000000000002</v>
+      </c>
+      <c r="AM385" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AN385">
+        <v>3.2625000000000002</v>
+      </c>
+    </row>
+    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="B386">
+        <v>3.9</v>
+      </c>
+      <c r="C386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="D386">
+        <v>3.37</v>
+      </c>
+      <c r="E386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="F386">
+        <v>3.22</v>
+      </c>
+      <c r="G386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="H386">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="I386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="J386">
+        <v>3.2524999999999999</v>
+      </c>
+      <c r="K386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="L386">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="M386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="N386">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="O386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="P386">
+        <v>3.3</v>
+      </c>
+      <c r="Q386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="R386">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="S386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="T386">
+        <v>3.3449999999999998</v>
+      </c>
+      <c r="U386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="V386">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="W386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="X386">
+        <v>3.4175</v>
+      </c>
+      <c r="Y386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="Z386">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AA386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AB386">
+        <v>3.415</v>
+      </c>
+      <c r="AC386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AD386">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="AE386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AF386">
+        <v>3.33</v>
+      </c>
+      <c r="AG386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AH386">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="AI386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AJ386">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="AK386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AL386">
+        <v>3.3</v>
+      </c>
+      <c r="AM386" s="3">
+        <v>44446</v>
+      </c>
+      <c r="AN386">
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>

--- a/Input/swaps/uk-inflation-CPI-swaps.xlsx
+++ b/Input/swaps/uk-inflation-CPI-swaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SHARE\cmf\Desi\Rajesh\IIE\Input\swaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8321A07-0CF0-46CD-B1F6-32C9A8669113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F290B-68A4-45B0-9A40-94CBCA902567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD6E5492-9B6F-48BC-BA9E-F8938070580A}"/>
   </bookViews>
@@ -221,151 +221,151 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1846912138</v>
+        <v>#N/A Requesting Data...1176465790</v>
         <stp/>
         <stp>BTODAY|10610048301435813905</stp>
+        <tr r="AM3" s="1"/>
+        <tr r="AE3" s="1"/>
+        <tr r="S3" s="1"/>
+        <tr r="Y3" s="1"/>
         <tr r="AI3" s="1"/>
-        <tr r="AE3" s="1"/>
+        <tr r="AA3" s="1"/>
+        <tr r="AG3" s="1"/>
+        <tr r="AK3" s="1"/>
+        <tr r="Q3" s="1"/>
+        <tr r="C3" s="1"/>
+        <tr r="AC3" s="1"/>
+        <tr r="M3" s="1"/>
+        <tr r="A3" s="1"/>
+        <tr r="G3" s="1"/>
+        <tr r="O3" s="1"/>
+        <tr r="I3" s="1"/>
         <tr r="K3" s="1"/>
-        <tr r="C3" s="1"/>
-        <tr r="S3" s="1"/>
-        <tr r="AA3" s="1"/>
-        <tr r="A3" s="1"/>
+        <tr r="W3" s="1"/>
         <tr r="U3" s="1"/>
-        <tr r="AG3" s="1"/>
-        <tr r="W3" s="1"/>
-        <tr r="AM3" s="1"/>
-        <tr r="G3" s="1"/>
-        <tr r="E3" s="1"/>
-        <tr r="I3" s="1"/>
-        <tr r="Q3" s="1"/>
-        <tr r="AK3" s="1"/>
-        <tr r="O3" s="1"/>
-        <tr r="M3" s="1"/>
-        <tr r="Y3" s="1"/>
-        <tr r="AC3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16648520785384556595</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10549088599100705024</stp>
-        <tr r="AM3" s="1"/>
+        <stp>BDH|14727900613982542771</stp>
+        <tr r="M3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11329469735326819906</stp>
-        <tr r="AI3" s="1"/>
+        <stp>BDH|18294689406665146561</stp>
+        <tr r="G3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17001268527352750308</stp>
-        <tr r="O3" s="1"/>
+        <stp>BDH|10869101156253411717</stp>
+        <tr r="A3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10650083590878889658</stp>
-        <tr r="G3" s="1"/>
+        <stp>BDH|15762125736873411260</stp>
+        <tr r="AK3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18184505381594165773</stp>
+        <tr r="AG3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10131759755970347622</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10454730729522727370</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16809990737341793854</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9522836198193782777</stp>
+        <stp>BDH|5027811252003512799</stp>
+        <tr r="W3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4744561898003917736</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8189848710444066826</stp>
+        <tr r="AE3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9363680340652755764</stp>
+        <tr r="U3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4427661743478850129</stp>
+        <tr r="O3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3462842479305057104</stp>
+        <tr r="AI3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9179211578584545144</stp>
+        <tr r="AA3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6109389352233656527</stp>
+        <tr r="S3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5747485256901710539</stp>
+        <tr r="AM3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|750390359236955428</stp>
+        <tr r="Y3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|547534762376038470</stp>
         <tr r="Q3" s="1"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4730474201995732809</stp>
-        <tr r="U3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6278499560308300214</stp>
-        <tr r="AA3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4825095734829100047</stp>
-        <tr r="S3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3983271590964145376</stp>
+        <stp>BDH|792776256146448683</stp>
         <tr r="AC3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3695581399787516185</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7550497448038514669</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1434424010877081843</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|51895073987318067</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6190733131183777756</stp>
-        <tr r="AE3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7076621114430649181</stp>
-        <tr r="Y3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8217453993812418426</stp>
-        <tr r="AK3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6741572581051137914</stp>
-        <tr r="W3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|342115791250466456</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|513886186961857968</stp>
-        <tr r="AG3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -669,11 +669,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C36439-120D-4AC8-AA17-C4C11277DC4C}">
-  <dimension ref="A1:AN386"/>
+  <dimension ref="A1:AN420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -865,140 +863,140 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>_xll.BDH(B$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(B$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="B3" s="2">
         <v>0.79</v>
       </c>
       <c r="C3" s="1">
-        <f>_xll.BDH(D$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(D$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="D3" s="2">
         <v>1.6175000000000002</v>
       </c>
       <c r="E3" s="1">
-        <f>_xll.BDH(F$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(F$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="F3" s="2">
         <v>1.9100000000000001</v>
       </c>
       <c r="G3" s="1">
-        <f>_xll.BDH(H$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(H$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="H3" s="2">
         <v>2.1025</v>
       </c>
       <c r="I3" s="1">
-        <f>_xll.BDH(J$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(J$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="J3" s="2">
         <v>2.2425000000000002</v>
       </c>
       <c r="K3" s="1">
-        <f>_xll.BDH(L$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(L$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="L3" s="2">
         <v>2.3174999999999999</v>
       </c>
       <c r="M3" s="1">
-        <f>_xll.BDH(N$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(N$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="N3" s="2">
         <v>2.3774999999999999</v>
       </c>
       <c r="O3" s="1">
-        <f>_xll.BDH(P$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(P$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="P3" s="2">
         <v>2.4175</v>
       </c>
       <c r="Q3" s="1">
-        <f>_xll.BDH(R$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(R$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="R3" s="2">
         <v>2.4525000000000001</v>
       </c>
       <c r="S3" s="1">
-        <f>_xll.BDH(T$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(T$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="T3" s="2">
         <v>2.48</v>
       </c>
       <c r="U3" s="1">
-        <f>_xll.BDH(V$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(V$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="V3" s="2">
         <v>2.4500000000000002</v>
       </c>
       <c r="W3" s="1">
-        <f>_xll.BDH(X$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(X$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="X3" s="2">
         <v>2.375</v>
       </c>
       <c r="Y3" s="1">
-        <f>_xll.BDH(Z$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(Z$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="Z3" s="2">
         <v>2.2925</v>
       </c>
       <c r="AA3" s="1">
-        <f>_xll.BDH(AB$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AB$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AB3" s="2">
         <v>2.2324999999999999</v>
       </c>
       <c r="AC3" s="1">
-        <f>_xll.BDH(AD$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AD$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AD3" s="2">
         <v>2.145</v>
       </c>
       <c r="AE3" s="1">
-        <f>_xll.BDH(AF$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AF$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AF3" s="2">
         <v>2.0525000000000002</v>
       </c>
       <c r="AG3" s="1">
-        <f>_xll.BDH(AH$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AH$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AH3" s="2">
         <v>1.9725000000000001</v>
       </c>
       <c r="AI3" s="1">
-        <f>_xll.BDH(AJ$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AJ$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AJ3" s="2">
         <v>1.9525000000000001</v>
       </c>
       <c r="AK3" s="1">
-        <f>_xll.BDH(AL$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AL$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AL3" s="2">
         <v>1.94</v>
       </c>
       <c r="AM3" s="1">
-        <f>_xll.BDH(AN$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=384")</f>
+        <f>_xll.BDH(AN$1, "PX_LAST", "1/1/1900", _xll.BToday(), "Dates", "S","cols=2;rows=418")</f>
         <v>43909</v>
       </c>
       <c r="AN3" s="2">
@@ -47632,31 +47630,31 @@
         <v>44446</v>
       </c>
       <c r="H386">
-        <v>3.2949999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="I386" s="3">
         <v>44446</v>
       </c>
       <c r="J386">
-        <v>3.2524999999999999</v>
+        <v>3.2574999999999998</v>
       </c>
       <c r="K386" s="3">
         <v>44446</v>
       </c>
       <c r="L386">
-        <v>3.2800000000000002</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="M386" s="3">
         <v>44446</v>
       </c>
       <c r="N386">
-        <v>3.2800000000000002</v>
+        <v>3.2824999999999998</v>
       </c>
       <c r="O386" s="3">
         <v>44446</v>
       </c>
       <c r="P386">
-        <v>3.3</v>
+        <v>3.2974999999999999</v>
       </c>
       <c r="Q386" s="3">
         <v>44446</v>
@@ -47674,61 +47672,4209 @@
         <v>44446</v>
       </c>
       <c r="V386">
-        <v>3.3925000000000001</v>
+        <v>3.395</v>
       </c>
       <c r="W386" s="3">
         <v>44446</v>
       </c>
       <c r="X386">
-        <v>3.4175</v>
+        <v>3.42</v>
       </c>
       <c r="Y386" s="3">
         <v>44446</v>
       </c>
       <c r="Z386">
-        <v>3.4624999999999999</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="AA386" s="3">
         <v>44446</v>
       </c>
       <c r="AB386">
-        <v>3.415</v>
+        <v>3.4175</v>
       </c>
       <c r="AC386" s="3">
         <v>44446</v>
       </c>
       <c r="AD386">
-        <v>3.3624999999999998</v>
+        <v>3.3675000000000002</v>
       </c>
       <c r="AE386" s="3">
         <v>44446</v>
       </c>
       <c r="AF386">
-        <v>3.33</v>
+        <v>3.3374999999999999</v>
       </c>
       <c r="AG386" s="3">
         <v>44446</v>
       </c>
       <c r="AH386">
-        <v>3.3149999999999999</v>
+        <v>3.3224999999999998</v>
       </c>
       <c r="AI386" s="3">
         <v>44446</v>
       </c>
       <c r="AJ386">
-        <v>3.2974999999999999</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="AK386" s="3">
         <v>44446</v>
       </c>
       <c r="AL386">
-        <v>3.3</v>
+        <v>3.3075000000000001</v>
       </c>
       <c r="AM386" s="3">
         <v>44446</v>
       </c>
       <c r="AN386">
+        <v>3.3275000000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+      <c r="C387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="D387">
+        <v>3.48</v>
+      </c>
+      <c r="E387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="F387">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="G387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="H387">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="I387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="J387">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="K387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="L387">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="M387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="N387">
         <v>3.32</v>
+      </c>
+      <c r="O387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="P387">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="Q387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="R387">
+        <v>3.3525</v>
+      </c>
+      <c r="S387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="T387">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="U387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="V387">
+        <v>3.4175</v>
+      </c>
+      <c r="W387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="X387">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="Y387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="Z387">
+        <v>3.49</v>
+      </c>
+      <c r="AA387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AB387">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AC387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AD387">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="AE387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AF387">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="AG387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AH387">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AI387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AJ387">
+        <v>3.33</v>
+      </c>
+      <c r="AK387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AL387">
+        <v>3.3325</v>
+      </c>
+      <c r="AM387" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AN387">
+        <v>3.3525</v>
+      </c>
+    </row>
+    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="B388">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="C388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="D388">
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="E388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="F388">
+        <v>3.2875000000000001</v>
+      </c>
+      <c r="G388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="H388">
+        <v>3.3525</v>
+      </c>
+      <c r="I388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="J388">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="K388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="L388">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="M388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="N388">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="O388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="P388">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="Q388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="R388">
+        <v>3.32</v>
+      </c>
+      <c r="S388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="T388">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="U388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="V388">
+        <v>3.39</v>
+      </c>
+      <c r="W388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="X388">
+        <v>3.4175</v>
+      </c>
+      <c r="Y388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="Z388">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="AA388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AB388">
+        <v>3.4375</v>
+      </c>
+      <c r="AC388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AD388">
+        <v>3.39</v>
+      </c>
+      <c r="AE388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AF388">
+        <v>3.36</v>
+      </c>
+      <c r="AG388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AH388">
+        <v>3.3449999999999998</v>
+      </c>
+      <c r="AI388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AJ388">
+        <v>3.33</v>
+      </c>
+      <c r="AK388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AL388">
+        <v>3.33</v>
+      </c>
+      <c r="AM388" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AN388">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="B389">
+        <v>4.04</v>
+      </c>
+      <c r="C389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="D389">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="E389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="F389">
+        <v>3.3125</v>
+      </c>
+      <c r="G389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="H389">
+        <v>3.3725000000000001</v>
+      </c>
+      <c r="I389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="J389">
+        <v>3.3125</v>
+      </c>
+      <c r="K389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="L389">
+        <v>3.3174999999999999</v>
+      </c>
+      <c r="M389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="N389">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="O389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="P389">
+        <v>3.3275000000000001</v>
+      </c>
+      <c r="Q389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="R389">
+        <v>3.3449999999999998</v>
+      </c>
+      <c r="S389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="T389">
+        <v>3.355</v>
+      </c>
+      <c r="U389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="V389">
+        <v>3.41</v>
+      </c>
+      <c r="W389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="X389">
+        <v>3.44</v>
+      </c>
+      <c r="Y389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="Z389">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="AA389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AB389">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AC389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AD389">
+        <v>3.3975</v>
+      </c>
+      <c r="AE389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AF389">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AG389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AH389">
+        <v>3.3525</v>
+      </c>
+      <c r="AI389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AJ389">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AK389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AL389">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AM389" s="3">
+        <v>44449</v>
+      </c>
+      <c r="AN389">
+        <v>3.3574999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="B390">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="D390">
+        <v>3.54</v>
+      </c>
+      <c r="E390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F390">
+        <v>3.355</v>
+      </c>
+      <c r="G390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="H390">
+        <v>3.4125000000000001</v>
+      </c>
+      <c r="I390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="J390">
+        <v>3.3574999999999999</v>
+      </c>
+      <c r="K390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="L390">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="M390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="N390">
+        <v>3.3574999999999999</v>
+      </c>
+      <c r="O390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="P390">
+        <v>3.375</v>
+      </c>
+      <c r="Q390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="R390">
+        <v>3.3875000000000002</v>
+      </c>
+      <c r="S390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="T390">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="U390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="V390">
+        <v>3.4424999999999999</v>
+      </c>
+      <c r="W390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="X390">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="Y390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="Z390">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="AA390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AB390">
+        <v>3.4575</v>
+      </c>
+      <c r="AC390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AD390">
+        <v>3.4</v>
+      </c>
+      <c r="AE390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AF390">
+        <v>3.37</v>
+      </c>
+      <c r="AG390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AH390">
+        <v>3.355</v>
+      </c>
+      <c r="AI390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AJ390">
+        <v>3.34</v>
+      </c>
+      <c r="AK390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AL390">
+        <v>3.34</v>
+      </c>
+      <c r="AM390" s="3">
+        <v>44452</v>
+      </c>
+      <c r="AN390">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="B391">
+        <v>4.24</v>
+      </c>
+      <c r="C391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="D391">
+        <v>3.64</v>
+      </c>
+      <c r="E391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F391">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="G391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="H391">
+        <v>3.4775</v>
+      </c>
+      <c r="I391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="J391">
+        <v>3.41</v>
+      </c>
+      <c r="K391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="L391">
+        <v>3.4024999999999999</v>
+      </c>
+      <c r="M391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="N391">
+        <v>3.3875000000000002</v>
+      </c>
+      <c r="O391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="P391">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="Q391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="R391">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="S391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="T391">
+        <v>3.395</v>
+      </c>
+      <c r="U391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="V391">
+        <v>3.44</v>
+      </c>
+      <c r="W391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="X391">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="Y391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="Z391">
+        <v>3.49</v>
+      </c>
+      <c r="AA391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AB391">
+        <v>3.4375</v>
+      </c>
+      <c r="AC391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AD391">
+        <v>3.3774999999999999</v>
+      </c>
+      <c r="AE391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AF391">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AG391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AH391">
+        <v>3.3325</v>
+      </c>
+      <c r="AI391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AJ391">
+        <v>3.3174999999999999</v>
+      </c>
+      <c r="AK391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AL391">
+        <v>3.3174999999999999</v>
+      </c>
+      <c r="AM391" s="3">
+        <v>44453</v>
+      </c>
+      <c r="AN391">
+        <v>3.3374999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="B392">
+        <v>4.51</v>
+      </c>
+      <c r="C392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="D392">
+        <v>3.85</v>
+      </c>
+      <c r="E392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F392">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="G392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="H392">
+        <v>3.6324999999999998</v>
+      </c>
+      <c r="I392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J392">
+        <v>3.55</v>
+      </c>
+      <c r="K392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="L392">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="M392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="N392">
+        <v>3.51</v>
+      </c>
+      <c r="O392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="P392">
+        <v>3.5</v>
+      </c>
+      <c r="Q392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="R392">
+        <v>3.5024999999999999</v>
+      </c>
+      <c r="S392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="T392">
+        <v>3.4975000000000001</v>
+      </c>
+      <c r="U392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="V392">
+        <v>3.5274999999999999</v>
+      </c>
+      <c r="W392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="X392">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="Y392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="Z392">
+        <v>3.5474999999999999</v>
+      </c>
+      <c r="AA392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AB392">
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="AC392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AD392">
+        <v>3.4175</v>
+      </c>
+      <c r="AE392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AF392">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AG392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AH392">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AI392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ392">
+        <v>3.3525</v>
+      </c>
+      <c r="AK392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AL392">
+        <v>3.3525</v>
+      </c>
+      <c r="AM392" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AN392">
+        <v>3.3725000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="B393">
+        <v>4.51</v>
+      </c>
+      <c r="C393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="D393">
+        <v>3.84</v>
+      </c>
+      <c r="E393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F393">
+        <v>3.5949999999999998</v>
+      </c>
+      <c r="G393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="H393">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="I393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="J393">
+        <v>3.5474999999999999</v>
+      </c>
+      <c r="K393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L393">
+        <v>3.5225</v>
+      </c>
+      <c r="M393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="N393">
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="O393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="P393">
+        <v>3.4824999999999999</v>
+      </c>
+      <c r="Q393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="R393">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="S393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="T393">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="U393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="V393">
+        <v>3.49</v>
+      </c>
+      <c r="W393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="X393">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="Y393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="Z393">
+        <v>3.5274999999999999</v>
+      </c>
+      <c r="AA393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AB393">
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="AC393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AD393">
+        <v>3.4024999999999999</v>
+      </c>
+      <c r="AE393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AF393">
+        <v>3.37</v>
+      </c>
+      <c r="AG393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AH393">
+        <v>3.3525</v>
+      </c>
+      <c r="AI393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AJ393">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AK393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AL393">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AM393" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AN393">
+        <v>3.3574999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="B394">
+        <v>4.41</v>
+      </c>
+      <c r="C394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="D394">
+        <v>3.77</v>
+      </c>
+      <c r="E394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F394">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="G394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="H394">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="I394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="J394">
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="K394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L394">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="M394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="N394">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="O394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="P394">
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="Q394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="R394">
+        <v>3.43</v>
+      </c>
+      <c r="S394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="T394">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="U394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="V394">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="W394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="X394">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="Y394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="Z394">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="AA394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AB394">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AC394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AD394">
+        <v>3.4</v>
+      </c>
+      <c r="AE394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AF394">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AG394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AH394">
+        <v>3.35</v>
+      </c>
+      <c r="AI394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AJ394">
+        <v>3.335</v>
+      </c>
+      <c r="AK394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AL394">
+        <v>3.335</v>
+      </c>
+      <c r="AM394" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AN394">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B395">
+        <v>4.415</v>
+      </c>
+      <c r="C395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="D395">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="E395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F395">
+        <v>3.51</v>
+      </c>
+      <c r="G395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="H395">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="J395">
+        <v>3.46</v>
+      </c>
+      <c r="K395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L395">
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="M395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="N395">
+        <v>3.4175</v>
+      </c>
+      <c r="O395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="P395">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="Q395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="R395">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="S395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="T395">
+        <v>3.42</v>
+      </c>
+      <c r="U395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="V395">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="W395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="X395">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="Y395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="Z395">
+        <v>3.5125000000000002</v>
+      </c>
+      <c r="AA395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AB395">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AC395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AD395">
+        <v>3.4024999999999999</v>
+      </c>
+      <c r="AE395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AF395">
+        <v>3.37</v>
+      </c>
+      <c r="AG395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AH395">
+        <v>3.3525</v>
+      </c>
+      <c r="AI395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AJ395">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AK395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AL395">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AM395" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AN395">
+        <v>3.3574999999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="B396">
+        <v>4.45</v>
+      </c>
+      <c r="C396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="D396">
+        <v>3.77</v>
+      </c>
+      <c r="E396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="F396">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="G396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="H396">
+        <v>3.5425</v>
+      </c>
+      <c r="I396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="J396">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="K396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L396">
+        <v>3.44</v>
+      </c>
+      <c r="M396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="N396">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="O396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="P396">
+        <v>3.43</v>
+      </c>
+      <c r="Q396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="R396">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="S396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="T396">
+        <v>3.415</v>
+      </c>
+      <c r="U396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="V396">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="W396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="X396">
+        <v>3.4725000000000001</v>
+      </c>
+      <c r="Y396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="Z396">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="AA396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AB396">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="AC396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AD396">
+        <v>3.3975</v>
+      </c>
+      <c r="AE396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AF396">
+        <v>3.36</v>
+      </c>
+      <c r="AG396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AH396">
+        <v>3.34</v>
+      </c>
+      <c r="AI396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ396">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AK396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AL396">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="AM396" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AN396">
+        <v>3.3425000000000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B397">
+        <v>4.4649999999999999</v>
+      </c>
+      <c r="C397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="D397">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="E397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F397">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="G397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="H397">
+        <v>3.5575000000000001</v>
+      </c>
+      <c r="I397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="J397">
+        <v>3.4824999999999999</v>
+      </c>
+      <c r="K397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L397">
+        <v>3.46</v>
+      </c>
+      <c r="M397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="N397">
+        <v>3.4474999999999998</v>
+      </c>
+      <c r="O397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="P397">
+        <v>3.4474999999999998</v>
+      </c>
+      <c r="Q397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="R397">
+        <v>3.4525000000000001</v>
+      </c>
+      <c r="S397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="T397">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="U397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="V397">
+        <v>3.4775</v>
+      </c>
+      <c r="W397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="X397">
+        <v>3.4925000000000002</v>
+      </c>
+      <c r="Y397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="Z397">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="AA397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AB397">
+        <v>3.4575</v>
+      </c>
+      <c r="AC397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AD397">
+        <v>3.3925000000000001</v>
+      </c>
+      <c r="AE397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AF397">
+        <v>3.355</v>
+      </c>
+      <c r="AG397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AH397">
+        <v>3.335</v>
+      </c>
+      <c r="AI397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AJ397">
+        <v>3.32</v>
+      </c>
+      <c r="AK397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AL397">
+        <v>3.3174999999999999</v>
+      </c>
+      <c r="AM397" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AN397">
+        <v>3.3374999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="B398">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="D398">
+        <v>3.77</v>
+      </c>
+      <c r="E398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="F398">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="G398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="H398">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="J398">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="K398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L398">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="M398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="N398">
+        <v>3.42</v>
+      </c>
+      <c r="O398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="P398">
+        <v>3.4275000000000002</v>
+      </c>
+      <c r="Q398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="R398">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="S398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="T398">
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="U398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="V398">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="W398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="X398">
+        <v>3.5</v>
+      </c>
+      <c r="Y398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="Z398">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="AA398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AB398">
+        <v>3.48</v>
+      </c>
+      <c r="AC398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AD398">
+        <v>3.42</v>
+      </c>
+      <c r="AE398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AF398">
+        <v>3.375</v>
+      </c>
+      <c r="AG398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AH398">
+        <v>3.3475000000000001</v>
+      </c>
+      <c r="AI398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AJ398">
+        <v>3.3325</v>
+      </c>
+      <c r="AK398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AL398">
+        <v>3.33</v>
+      </c>
+      <c r="AM398" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AN398">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="B399">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="D399">
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="E399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="F399">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="G399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="H399">
+        <v>3.55</v>
+      </c>
+      <c r="I399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="J399">
+        <v>3.46</v>
+      </c>
+      <c r="K399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="L399">
+        <v>3.4375</v>
+      </c>
+      <c r="M399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="N399">
+        <v>3.4275000000000002</v>
+      </c>
+      <c r="O399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="P399">
+        <v>3.43</v>
+      </c>
+      <c r="Q399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="R399">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="S399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="T399">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="U399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="V399">
+        <v>3.48</v>
+      </c>
+      <c r="W399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="X399">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="Y399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="Z399">
+        <v>3.5324999999999998</v>
+      </c>
+      <c r="AA399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AB399">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="AC399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AD399">
+        <v>3.4275000000000002</v>
+      </c>
+      <c r="AE399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AF399">
+        <v>3.3824999999999998</v>
+      </c>
+      <c r="AG399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AH399">
+        <v>3.355</v>
+      </c>
+      <c r="AI399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AJ399">
+        <v>3.34</v>
+      </c>
+      <c r="AK399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AL399">
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="AM399" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AN399">
+        <v>3.3574999999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="B400">
+        <v>5.03</v>
+      </c>
+      <c r="C400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="D400">
+        <v>4.08</v>
+      </c>
+      <c r="E400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="F400">
+        <v>3.77</v>
+      </c>
+      <c r="G400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="H400">
+        <v>3.7574999999999998</v>
+      </c>
+      <c r="I400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="J400">
+        <v>3.6475</v>
+      </c>
+      <c r="K400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="L400">
+        <v>3.62</v>
+      </c>
+      <c r="M400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="N400">
+        <v>3.585</v>
+      </c>
+      <c r="O400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="P400">
+        <v>3.5674999999999999</v>
+      </c>
+      <c r="Q400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="R400">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="S400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="T400">
+        <v>3.5575000000000001</v>
+      </c>
+      <c r="U400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="V400">
+        <v>3.585</v>
+      </c>
+      <c r="W400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="X400">
+        <v>3.6</v>
+      </c>
+      <c r="Y400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="Z400">
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="AA400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AB400">
+        <v>3.5575000000000001</v>
+      </c>
+      <c r="AC400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AD400">
+        <v>3.4874999999999998</v>
+      </c>
+      <c r="AE400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AF400">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AG400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AH400">
+        <v>3.42</v>
+      </c>
+      <c r="AI400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AJ400">
+        <v>3.4050000000000002</v>
+      </c>
+      <c r="AK400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AL400">
+        <v>3.4024999999999999</v>
+      </c>
+      <c r="AM400" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AN400">
+        <v>3.4224999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B401">
+        <v>5.14</v>
+      </c>
+      <c r="C401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="D401">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="F401">
+        <v>3.76</v>
+      </c>
+      <c r="G401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="H401">
+        <v>3.71</v>
+      </c>
+      <c r="I401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="J401">
+        <v>3.59</v>
+      </c>
+      <c r="K401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="L401">
+        <v>3.5575000000000001</v>
+      </c>
+      <c r="M401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="N401">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="O401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="P401">
+        <v>3.51</v>
+      </c>
+      <c r="Q401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="R401">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="S401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="T401">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="U401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="V401">
+        <v>3.5225</v>
+      </c>
+      <c r="W401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="X401">
+        <v>3.5324999999999998</v>
+      </c>
+      <c r="Y401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="Z401">
+        <v>3.5525000000000002</v>
+      </c>
+      <c r="AA401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AB401">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="AC401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AD401">
+        <v>3.43</v>
+      </c>
+      <c r="AE401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AF401">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="AG401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AH401">
+        <v>3.3574999999999999</v>
+      </c>
+      <c r="AI401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AJ401">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AK401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AL401">
+        <v>3.34</v>
+      </c>
+      <c r="AM401" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AN401">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="B402">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="C402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="D402">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="E402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="F402">
+        <v>3.665</v>
+      </c>
+      <c r="G402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="H402">
+        <v>3.605</v>
+      </c>
+      <c r="I402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="J402">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="K402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L402">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="M402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="N402">
+        <v>3.4375</v>
+      </c>
+      <c r="O402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="P402">
+        <v>3.43</v>
+      </c>
+      <c r="Q402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="R402">
+        <v>3.4275000000000002</v>
+      </c>
+      <c r="S402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="T402">
+        <v>3.42</v>
+      </c>
+      <c r="U402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="V402">
+        <v>3.4575</v>
+      </c>
+      <c r="W402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="X402">
+        <v>3.4775</v>
+      </c>
+      <c r="Y402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="Z402">
+        <v>3.4975000000000001</v>
+      </c>
+      <c r="AA402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AB402">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AC402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AD402">
+        <v>3.3875000000000002</v>
+      </c>
+      <c r="AE402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AF402">
+        <v>3.3425000000000002</v>
+      </c>
+      <c r="AG402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AH402">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="AI402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ402">
+        <v>3.3</v>
+      </c>
+      <c r="AK402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AL402">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="AM402" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AN402">
+        <v>3.3174999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="B403">
+        <v>5.25</v>
+      </c>
+      <c r="C403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D403">
+        <v>4.07</v>
+      </c>
+      <c r="E403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="F403">
+        <v>3.68</v>
+      </c>
+      <c r="G403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="H403">
+        <v>3.62</v>
+      </c>
+      <c r="I403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="J403">
+        <v>3.51</v>
+      </c>
+      <c r="K403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="L403">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="M403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="N403">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="O403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="P403">
+        <v>3.45</v>
+      </c>
+      <c r="Q403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="R403">
+        <v>3.4474999999999998</v>
+      </c>
+      <c r="S403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="T403">
+        <v>3.44</v>
+      </c>
+      <c r="U403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="V403">
+        <v>3.4824999999999999</v>
+      </c>
+      <c r="W403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="X403">
+        <v>3.5</v>
+      </c>
+      <c r="Y403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="Z403">
+        <v>3.5274999999999999</v>
+      </c>
+      <c r="AA403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AB403">
+        <v>3.4725000000000001</v>
+      </c>
+      <c r="AC403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AD403">
+        <v>3.4125000000000001</v>
+      </c>
+      <c r="AE403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AF403">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="AG403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AH403">
+        <v>3.34</v>
+      </c>
+      <c r="AI403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AJ403">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AK403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AL403">
+        <v>3.3224999999999998</v>
+      </c>
+      <c r="AM403" s="3">
+        <v>44469</v>
+      </c>
+      <c r="AN403">
+        <v>3.3425000000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B404">
+        <v>5.2</v>
+      </c>
+      <c r="C404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="D404">
+        <v>4.04</v>
+      </c>
+      <c r="E404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="F404">
+        <v>3.69</v>
+      </c>
+      <c r="G404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="H404">
+        <v>3.6324999999999998</v>
+      </c>
+      <c r="I404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="J404">
+        <v>3.5274999999999999</v>
+      </c>
+      <c r="K404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L404">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="M404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="N404">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="O404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="P404">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="Q404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="R404">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="S404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="T404">
+        <v>3.46</v>
+      </c>
+      <c r="U404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="V404">
+        <v>3.5074999999999998</v>
+      </c>
+      <c r="W404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="X404">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="Y404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="Z404">
+        <v>3.5575000000000001</v>
+      </c>
+      <c r="AA404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AB404">
+        <v>3.5074999999999998</v>
+      </c>
+      <c r="AC404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AD404">
+        <v>3.45</v>
+      </c>
+      <c r="AE404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AF404">
+        <v>3.4074999999999998</v>
+      </c>
+      <c r="AG404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AH404">
+        <v>3.3774999999999999</v>
+      </c>
+      <c r="AI404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AJ404">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="AK404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AL404">
+        <v>3.3624999999999998</v>
+      </c>
+      <c r="AM404" s="3">
+        <v>44470</v>
+      </c>
+      <c r="AN404">
+        <v>3.3824999999999998</v>
+      </c>
+    </row>
+    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="B405">
+        <v>5.32</v>
+      </c>
+      <c r="C405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="D405">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="F405">
+        <v>3.79</v>
+      </c>
+      <c r="G405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="H405">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="I405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="J405">
+        <v>3.61</v>
+      </c>
+      <c r="K405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="L405">
+        <v>3.5825</v>
+      </c>
+      <c r="M405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="N405">
+        <v>3.55</v>
+      </c>
+      <c r="O405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="P405">
+        <v>3.5375000000000001</v>
+      </c>
+      <c r="Q405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="R405">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="S405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="T405">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="U405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="V405">
+        <v>3.5674999999999999</v>
+      </c>
+      <c r="W405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="X405">
+        <v>3.585</v>
+      </c>
+      <c r="Y405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="Z405">
+        <v>3.605</v>
+      </c>
+      <c r="AA405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AB405">
+        <v>3.55</v>
+      </c>
+      <c r="AC405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AD405">
+        <v>3.49</v>
+      </c>
+      <c r="AE405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AF405">
+        <v>3.45</v>
+      </c>
+      <c r="AG405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AH405">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="AI405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AJ405">
+        <v>3.41</v>
+      </c>
+      <c r="AK405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AL405">
+        <v>3.4074999999999998</v>
+      </c>
+      <c r="AM405" s="3">
+        <v>44473</v>
+      </c>
+      <c r="AN405">
+        <v>3.4275000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="B406">
+        <v>5.53</v>
+      </c>
+      <c r="C406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="D406">
+        <v>4.335</v>
+      </c>
+      <c r="E406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="F406">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="G406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="H406">
+        <v>3.8374999999999999</v>
+      </c>
+      <c r="I406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="J406">
+        <v>3.7225000000000001</v>
+      </c>
+      <c r="K406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="L406">
+        <v>3.69</v>
+      </c>
+      <c r="M406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="N406">
+        <v>3.6475</v>
+      </c>
+      <c r="O406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="P406">
+        <v>3.625</v>
+      </c>
+      <c r="Q406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="R406">
+        <v>3.62</v>
+      </c>
+      <c r="S406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="T406">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="U406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="V406">
+        <v>3.645</v>
+      </c>
+      <c r="W406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="X406">
+        <v>3.6524999999999999</v>
+      </c>
+      <c r="Y406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="Z406">
+        <v>3.67</v>
+      </c>
+      <c r="AA406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AB406">
+        <v>3.61</v>
+      </c>
+      <c r="AC406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AD406">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="AE406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AF406">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="AG406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AH406">
+        <v>3.48</v>
+      </c>
+      <c r="AI406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AJ406">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="AK406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AL406">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AM406" s="3">
+        <v>44474</v>
+      </c>
+      <c r="AN406">
+        <v>3.4824999999999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="B407">
+        <v>5.41</v>
+      </c>
+      <c r="C407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="D407">
+        <v>4.21</v>
+      </c>
+      <c r="E407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="F407">
+        <v>3.85</v>
+      </c>
+      <c r="G407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="H407">
+        <v>3.8</v>
+      </c>
+      <c r="I407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="J407">
+        <v>3.68</v>
+      </c>
+      <c r="K407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="L407">
+        <v>3.64</v>
+      </c>
+      <c r="M407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="N407">
+        <v>3.605</v>
+      </c>
+      <c r="O407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="P407">
+        <v>3.59</v>
+      </c>
+      <c r="Q407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="R407">
+        <v>3.58</v>
+      </c>
+      <c r="S407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="T407">
+        <v>3.5724999999999998</v>
+      </c>
+      <c r="U407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="V407">
+        <v>3.6025</v>
+      </c>
+      <c r="W407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="X407">
+        <v>3.61</v>
+      </c>
+      <c r="Y407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="Z407">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="AA407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AB407">
+        <v>3.5674999999999999</v>
+      </c>
+      <c r="AC407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AD407">
+        <v>3.5024999999999999</v>
+      </c>
+      <c r="AE407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AF407">
+        <v>3.4624999999999999</v>
+      </c>
+      <c r="AG407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AH407">
+        <v>3.4375</v>
+      </c>
+      <c r="AI407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AJ407">
+        <v>3.4224999999999999</v>
+      </c>
+      <c r="AK407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AL407">
+        <v>3.42</v>
+      </c>
+      <c r="AM407" s="3">
+        <v>44475</v>
+      </c>
+      <c r="AN407">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="B408">
+        <v>5.28</v>
+      </c>
+      <c r="C408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="D408">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="F408">
+        <v>3.8</v>
+      </c>
+      <c r="G408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="H408">
+        <v>3.77</v>
+      </c>
+      <c r="I408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="J408">
+        <v>3.66</v>
+      </c>
+      <c r="K408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="L408">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="M408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="N408">
+        <v>3.5975000000000001</v>
+      </c>
+      <c r="O408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="P408">
+        <v>3.5825</v>
+      </c>
+      <c r="Q408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="R408">
+        <v>3.5775000000000001</v>
+      </c>
+      <c r="S408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="T408">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="U408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="V408">
+        <v>3.605</v>
+      </c>
+      <c r="W408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="X408">
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="Y408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="Z408">
+        <v>3.6324999999999998</v>
+      </c>
+      <c r="AA408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AB408">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AC408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AD408">
+        <v>3.51</v>
+      </c>
+      <c r="AE408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AF408">
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="AG408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AH408">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="AI408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AJ408">
+        <v>3.43</v>
+      </c>
+      <c r="AK408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AL408">
+        <v>3.4275000000000002</v>
+      </c>
+      <c r="AM408" s="3">
+        <v>44476</v>
+      </c>
+      <c r="AN408">
+        <v>3.4474999999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="B409">
+        <v>5.28</v>
+      </c>
+      <c r="C409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="D409">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="F409">
+        <v>3.79</v>
+      </c>
+      <c r="G409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="H409">
+        <v>3.76</v>
+      </c>
+      <c r="I409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="J409">
+        <v>3.65</v>
+      </c>
+      <c r="K409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="L409">
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="M409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="N409">
+        <v>3.59</v>
+      </c>
+      <c r="O409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="P409">
+        <v>3.58</v>
+      </c>
+      <c r="Q409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="R409">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="S409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="T409">
+        <v>3.5724999999999998</v>
+      </c>
+      <c r="U409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="V409">
+        <v>3.6074999999999999</v>
+      </c>
+      <c r="W409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="X409">
+        <v>3.625</v>
+      </c>
+      <c r="Y409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="Z409">
+        <v>3.645</v>
+      </c>
+      <c r="AA409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AB409">
+        <v>3.5925000000000002</v>
+      </c>
+      <c r="AC409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AD409">
+        <v>3.5324999999999998</v>
+      </c>
+      <c r="AE409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AF409">
+        <v>3.4925000000000002</v>
+      </c>
+      <c r="AG409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AH409">
+        <v>3.4675000000000002</v>
+      </c>
+      <c r="AI409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AJ409">
+        <v>3.4525000000000001</v>
+      </c>
+      <c r="AK409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AL409">
+        <v>3.45</v>
+      </c>
+      <c r="AM409" s="3">
+        <v>44477</v>
+      </c>
+      <c r="AN409">
+        <v>3.4699999999999998</v>
+      </c>
+    </row>
+    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="B410">
+        <v>5.27</v>
+      </c>
+      <c r="C410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D410">
+        <v>4.13</v>
+      </c>
+      <c r="E410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="F410">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="G410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="H410">
+        <v>3.74</v>
+      </c>
+      <c r="I410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="J410">
+        <v>3.63</v>
+      </c>
+      <c r="K410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="L410">
+        <v>3.6</v>
+      </c>
+      <c r="M410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="N410">
+        <v>3.57</v>
+      </c>
+      <c r="O410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="P410">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="Q410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="R410">
+        <v>3.55</v>
+      </c>
+      <c r="S410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="T410">
+        <v>3.55</v>
+      </c>
+      <c r="U410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="V410">
+        <v>3.59</v>
+      </c>
+      <c r="W410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="X410">
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="Y410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="Z410">
+        <v>3.6425000000000001</v>
+      </c>
+      <c r="AA410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AB410">
+        <v>3.5949999999999998</v>
+      </c>
+      <c r="AC410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AD410">
+        <v>3.54</v>
+      </c>
+      <c r="AE410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AF410">
+        <v>3.5024999999999999</v>
+      </c>
+      <c r="AG410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AH410">
+        <v>3.48</v>
+      </c>
+      <c r="AI410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AJ410">
+        <v>3.46</v>
+      </c>
+      <c r="AK410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AL410">
+        <v>3.4575</v>
+      </c>
+      <c r="AM410" s="3">
+        <v>44480</v>
+      </c>
+      <c r="AN410">
+        <v>3.4775</v>
+      </c>
+    </row>
+    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="B411">
+        <v>5.3</v>
+      </c>
+      <c r="C411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="D411">
+        <v>4.16</v>
+      </c>
+      <c r="E411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="F411">
+        <v>3.8</v>
+      </c>
+      <c r="G411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="H411">
+        <v>3.77</v>
+      </c>
+      <c r="I411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="J411">
+        <v>3.66</v>
+      </c>
+      <c r="K411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="L411">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="M411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="N411">
+        <v>3.5975000000000001</v>
+      </c>
+      <c r="O411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="P411">
+        <v>3.5825</v>
+      </c>
+      <c r="Q411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="R411">
+        <v>3.5775000000000001</v>
+      </c>
+      <c r="S411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="T411">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="U411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="V411">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="W411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="X411">
+        <v>3.64</v>
+      </c>
+      <c r="Y411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="Z411">
+        <v>3.6625000000000001</v>
+      </c>
+      <c r="AA411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AB411">
+        <v>3.6124999999999998</v>
+      </c>
+      <c r="AC411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AD411">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="AE411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AF411">
+        <v>3.5175000000000001</v>
+      </c>
+      <c r="AG411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AH411">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="AI411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AJ411">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="AK411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AL411">
+        <v>3.4725000000000001</v>
+      </c>
+      <c r="AM411" s="3">
+        <v>44481</v>
+      </c>
+      <c r="AN411">
+        <v>3.4925000000000002</v>
+      </c>
+    </row>
+    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B412">
+        <v>5.36</v>
+      </c>
+      <c r="C412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="D412">
+        <v>4.18</v>
+      </c>
+      <c r="E412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="F412">
+        <v>3.835</v>
+      </c>
+      <c r="G412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="H412">
+        <v>3.7875000000000001</v>
+      </c>
+      <c r="I412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="J412">
+        <v>3.6775000000000002</v>
+      </c>
+      <c r="K412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="L412">
+        <v>3.6425000000000001</v>
+      </c>
+      <c r="M412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="N412">
+        <v>3.6025</v>
+      </c>
+      <c r="O412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="P412">
+        <v>3.5825</v>
+      </c>
+      <c r="Q412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="R412">
+        <v>3.5724999999999998</v>
+      </c>
+      <c r="S412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="T412">
+        <v>3.5724999999999998</v>
+      </c>
+      <c r="U412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="V412">
+        <v>3.605</v>
+      </c>
+      <c r="W412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="X412">
+        <v>3.6175000000000002</v>
+      </c>
+      <c r="Y412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="Z412">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="AA412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AB412">
+        <v>3.5775000000000001</v>
+      </c>
+      <c r="AC412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AD412">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="AE412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AF412">
+        <v>3.4775</v>
+      </c>
+      <c r="AG412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AH412">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="AI412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AJ412">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="AK412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AL412">
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="AM412" s="3">
+        <v>44482</v>
+      </c>
+      <c r="AN412">
+        <v>3.4525000000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="B413">
+        <v>5.45</v>
+      </c>
+      <c r="C413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="D413">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="E413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="F413">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="G413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="H413">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="I413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="J413">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="K413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="L413">
+        <v>3.71</v>
+      </c>
+      <c r="M413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="N413">
+        <v>3.665</v>
+      </c>
+      <c r="O413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="P413">
+        <v>3.64</v>
+      </c>
+      <c r="Q413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="R413">
+        <v>3.63</v>
+      </c>
+      <c r="S413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="T413">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="U413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="V413">
+        <v>3.6574999999999998</v>
+      </c>
+      <c r="W413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="X413">
+        <v>3.67</v>
+      </c>
+      <c r="Y413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="Z413">
+        <v>3.6875</v>
+      </c>
+      <c r="AA413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AB413">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="AC413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AD413">
+        <v>3.5625</v>
+      </c>
+      <c r="AE413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AF413">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="AG413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AH413">
+        <v>3.5024999999999999</v>
+      </c>
+      <c r="AI413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AJ413">
+        <v>3.4824999999999999</v>
+      </c>
+      <c r="AK413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AL413">
+        <v>3.48</v>
+      </c>
+      <c r="AM413" s="3">
+        <v>44483</v>
+      </c>
+      <c r="AN413">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="B414">
+        <v>5.52</v>
+      </c>
+      <c r="C414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="D414">
+        <v>4.38</v>
+      </c>
+      <c r="E414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="F414">
+        <v>4.01</v>
+      </c>
+      <c r="G414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="H414">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="I414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J414">
+        <v>3.79</v>
+      </c>
+      <c r="K414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="L414">
+        <v>3.75</v>
+      </c>
+      <c r="M414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="N414">
+        <v>3.6974999999999998</v>
+      </c>
+      <c r="O414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="P414">
+        <v>3.6675</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="R414">
+        <v>3.6524999999999999</v>
+      </c>
+      <c r="S414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="T414">
+        <v>3.645</v>
+      </c>
+      <c r="U414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="V414">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="W414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="X414">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="Y414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="Z414">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="AA414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AB414">
+        <v>3.6425000000000001</v>
+      </c>
+      <c r="AC414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AD414">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AE414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AF414">
+        <v>3.5375000000000001</v>
+      </c>
+      <c r="AG414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AH414">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="AI414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AJ414">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="AK414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AL414">
+        <v>3.4925000000000002</v>
+      </c>
+      <c r="AM414" s="3">
+        <v>44484</v>
+      </c>
+      <c r="AN414">
+        <v>3.5125000000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B415">
+        <v>5.53</v>
+      </c>
+      <c r="C415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="D415">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="F415">
+        <v>3.98</v>
+      </c>
+      <c r="G415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="H415">
+        <v>3.8975</v>
+      </c>
+      <c r="I415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="J415">
+        <v>3.76</v>
+      </c>
+      <c r="K415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="L415">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="M415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="N415">
+        <v>3.66</v>
+      </c>
+      <c r="O415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="P415">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="Q415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="R415">
+        <v>3.6124999999999998</v>
+      </c>
+      <c r="S415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="T415">
+        <v>3.6025</v>
+      </c>
+      <c r="U415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="V415">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="W415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="X415">
+        <v>3.65</v>
+      </c>
+      <c r="Y415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="Z415">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="AA415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AB415">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="AC415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AD415">
+        <v>3.55</v>
+      </c>
+      <c r="AE415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AF415">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="AG415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AH415">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="AI415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AJ415">
+        <v>3.48</v>
+      </c>
+      <c r="AK415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AL415">
+        <v>3.48</v>
+      </c>
+      <c r="AM415" s="3">
+        <v>44487</v>
+      </c>
+      <c r="AN415">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="B416">
+        <v>5.53</v>
+      </c>
+      <c r="C416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="D416">
+        <v>4.38</v>
+      </c>
+      <c r="E416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="F416">
+        <v>4.01</v>
+      </c>
+      <c r="G416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="H416">
+        <v>3.9575</v>
+      </c>
+      <c r="I416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="J416">
+        <v>3.8325</v>
+      </c>
+      <c r="K416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="L416">
+        <v>3.7774999999999999</v>
+      </c>
+      <c r="M416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="N416">
+        <v>3.7175000000000002</v>
+      </c>
+      <c r="O416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="P416">
+        <v>3.6775000000000002</v>
+      </c>
+      <c r="Q416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="R416">
+        <v>3.6574999999999998</v>
+      </c>
+      <c r="S416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="T416">
+        <v>3.6425000000000001</v>
+      </c>
+      <c r="U416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="V416">
+        <v>3.6724999999999999</v>
+      </c>
+      <c r="W416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="X416">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="Y416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="Z416">
+        <v>3.7</v>
+      </c>
+      <c r="AA416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AB416">
+        <v>3.64</v>
+      </c>
+      <c r="AC416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AD416">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AE416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AF416">
+        <v>3.54</v>
+      </c>
+      <c r="AG416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AH416">
+        <v>3.52</v>
+      </c>
+      <c r="AI416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AJ416">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="AK416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AL416">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="AM416" s="3">
+        <v>44488</v>
+      </c>
+      <c r="AN416">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="B417">
+        <v>5.59</v>
+      </c>
+      <c r="C417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="D417">
+        <v>4.45</v>
+      </c>
+      <c r="E417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="F417">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="H417">
+        <v>4.01</v>
+      </c>
+      <c r="I417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="J417">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="K417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="L417">
+        <v>3.83</v>
+      </c>
+      <c r="M417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="N417">
+        <v>3.7675000000000001</v>
+      </c>
+      <c r="O417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="P417">
+        <v>3.7250000000000001</v>
+      </c>
+      <c r="Q417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="R417">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="S417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="T417">
+        <v>3.69</v>
+      </c>
+      <c r="U417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="V417">
+        <v>3.7149999999999999</v>
+      </c>
+      <c r="W417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="X417">
+        <v>3.7225000000000001</v>
+      </c>
+      <c r="Y417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="Z417">
+        <v>3.7374999999999998</v>
+      </c>
+      <c r="AA417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AB417">
+        <v>3.6775000000000002</v>
+      </c>
+      <c r="AC417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AD417">
+        <v>3.61</v>
+      </c>
+      <c r="AE417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AF417">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AG417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AH417">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="AI417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AJ417">
+        <v>3.54</v>
+      </c>
+      <c r="AK417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AL417">
+        <v>3.54</v>
+      </c>
+      <c r="AM417" s="3">
+        <v>44489</v>
+      </c>
+      <c r="AN417">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="B418">
+        <v>5.67</v>
+      </c>
+      <c r="C418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="D418">
+        <v>4.53</v>
+      </c>
+      <c r="E418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="F418">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="H418">
+        <v>4.1074999999999999</v>
+      </c>
+      <c r="I418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="J418">
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="K418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="L418">
+        <v>3.9175</v>
+      </c>
+      <c r="M418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="N418">
+        <v>3.855</v>
+      </c>
+      <c r="O418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="P418">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="Q418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="R418">
+        <v>3.7925</v>
+      </c>
+      <c r="S418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="T418">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="U418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="V418">
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="W418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="X418">
+        <v>3.7974999999999999</v>
+      </c>
+      <c r="Y418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="Z418">
+        <v>3.8075000000000001</v>
+      </c>
+      <c r="AA418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AB418">
+        <v>3.7425000000000002</v>
+      </c>
+      <c r="AC418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AD418">
+        <v>3.67</v>
+      </c>
+      <c r="AE418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AF418">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="AG418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AH418">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="AI418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AJ418">
+        <v>3.6</v>
+      </c>
+      <c r="AK418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AL418">
+        <v>3.6</v>
+      </c>
+      <c r="AM418" s="3">
+        <v>44490</v>
+      </c>
+      <c r="AN418">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="B419">
+        <v>5.75</v>
+      </c>
+      <c r="C419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="D419">
+        <v>4.62</v>
+      </c>
+      <c r="E419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="F419">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="G419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="H419">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="I419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="J419">
+        <v>4.0625</v>
+      </c>
+      <c r="K419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="L419">
+        <v>3.9975000000000001</v>
+      </c>
+      <c r="M419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="N419">
+        <v>3.92</v>
+      </c>
+      <c r="O419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="P419">
+        <v>3.87</v>
+      </c>
+      <c r="Q419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="R419">
+        <v>3.84</v>
+      </c>
+      <c r="S419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="T419">
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="U419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="V419">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="W419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="X419">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="Y419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="Z419">
+        <v>3.8125</v>
+      </c>
+      <c r="AA419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AB419">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="AC419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AD419">
+        <v>3.65</v>
+      </c>
+      <c r="AE419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AF419">
+        <v>3.6074999999999999</v>
+      </c>
+      <c r="AG419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AH419">
+        <v>3.5874999999999999</v>
+      </c>
+      <c r="AI419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AJ419">
+        <v>3.57</v>
+      </c>
+      <c r="AK419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AL419">
+        <v>3.57</v>
+      </c>
+      <c r="AM419" s="3">
+        <v>44491</v>
+      </c>
+      <c r="AN419">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="B420">
+        <v>5.78</v>
+      </c>
+      <c r="C420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="D420">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="F420">
+        <v>4.26</v>
+      </c>
+      <c r="G420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="H420">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="J420">
+        <v>4.0875000000000004</v>
+      </c>
+      <c r="K420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="L420">
+        <v>4.0175000000000001</v>
+      </c>
+      <c r="M420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="N420">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="O420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="P420">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="Q420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="R420">
+        <v>3.85</v>
+      </c>
+      <c r="S420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="T420">
+        <v>3.82</v>
+      </c>
+      <c r="U420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="V420">
+        <v>3.8174999999999999</v>
+      </c>
+      <c r="W420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="X420">
+        <v>3.8</v>
+      </c>
+      <c r="Y420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="Z420">
+        <v>3.7875000000000001</v>
+      </c>
+      <c r="AA420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AB420">
+        <v>3.6974999999999998</v>
+      </c>
+      <c r="AC420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AD420">
+        <v>3.6</v>
+      </c>
+      <c r="AE420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AF420">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="AG420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AH420">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="AI420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AJ420">
+        <v>3.51</v>
+      </c>
+      <c r="AK420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AL420">
+        <v>3.51</v>
+      </c>
+      <c r="AM420" s="3">
+        <v>44494</v>
+      </c>
+      <c r="AN420">
+        <v>3.5300000000000002</v>
       </c>
     </row>
   </sheetData>
